--- a/sullivan_nov_2020.xlsx
+++ b/sullivan_nov_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\KJ\PycharmProjects\UniversalBridge3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E7ABE5D-510A-4039-A724-CFBC42CB1865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F3A0EA-69B6-42F8-926F-8EF12A751F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="X17">
         <f>pyReport!E23</f>
-        <v>0.36437502005131617</v>
+        <v>2.401598021774189E-2</v>
       </c>
       <c r="Y17" s="77">
         <f>pyReport!G23</f>
@@ -17179,7 +17179,7 @@
       </c>
       <c r="Z17" s="77">
         <f>pyReport!H23</f>
-        <v>1.899651737571835E-2</v>
+        <v>1.8764773907667721E-2</v>
       </c>
     </row>
     <row r="18" spans="2:26">
@@ -23337,7 +23337,7 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -24323,7 +24323,7 @@
         <v>3176412</v>
       </c>
       <c r="F24" s="354">
-        <v>1.5953200000000001</v>
+        <v>1595.32</v>
       </c>
       <c r="G24" s="355">
         <v>19.71</v>
@@ -25311,8 +25311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F778DD-95CA-4E1A-9255-74C7336E0AC4}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -27204,7 +27204,7 @@
         <v>3176412</v>
       </c>
       <c r="F17">
-        <v>1.5953200000000001</v>
+        <v>1595.32</v>
       </c>
       <c r="G17">
         <v>19.71</v>
@@ -27237,33 +27237,33 @@
         <v>4.944726844883379E-4</v>
       </c>
       <c r="Q17">
-        <v>3.6437502005131619E-7</v>
+        <v>2.4015980217741891E-8</v>
       </c>
       <c r="R17">
-        <v>2.224972110923106</v>
+        <v>2.0110157617297699</v>
       </c>
       <c r="S17">
         <v>3.1729804859140089</v>
       </c>
       <c r="T17">
-        <v>1.899651737571835E-2</v>
+        <v>1.8764773907667721E-2</v>
       </c>
       <c r="U17">
-        <v>2.0774059265958238</v>
+        <v>2.0854212181207941</v>
       </c>
       <c r="V17">
-        <v>1.253690113276088E-6</v>
+        <v>7.7191536784256263E-9</v>
       </c>
       <c r="W17">
-        <v>1.253684615535567E-2</v>
+        <v>6.7676020763622505E-5</v>
       </c>
       <c r="X17" s="372">
         <f t="shared" si="0"/>
-        <v>0.29064201447608723</v>
+        <v>3.1112193406466955</v>
       </c>
       <c r="Y17" s="372">
         <f t="shared" si="1"/>
-        <v>1.5152548847066409</v>
+        <v>277.27359995365214</v>
       </c>
       <c r="Z17" s="366" t="str">
         <f t="shared" si="2"/>
@@ -27278,11 +27278,11 @@
       </c>
       <c r="AC17" s="369">
         <f t="shared" si="4"/>
-        <v>1.899651737571835E-2</v>
+        <v>1.8764773907667721E-2</v>
       </c>
       <c r="AD17" s="365">
         <f t="shared" si="5"/>
-        <v>2.0774059265958238</v>
+        <v>2.0854212181207941</v>
       </c>
       <c r="AE17" s="367">
         <v>1000000</v>
@@ -27293,11 +27293,11 @@
       </c>
       <c r="AG17" s="365">
         <f t="shared" si="7"/>
-        <v>0.36437502005131617</v>
+        <v>2.401598021774189E-2</v>
       </c>
       <c r="AH17" s="370">
         <f t="shared" si="8"/>
-        <v>2.224972110923106</v>
+        <v>2.0110157617297699</v>
       </c>
       <c r="AI17" s="370">
         <f t="shared" si="9"/>
@@ -34717,11 +34717,11 @@
       </c>
       <c r="E23" s="377">
         <f t="shared" si="7"/>
-        <v>0.36437502005131617</v>
+        <v>2.401598021774189E-2</v>
       </c>
       <c r="F23" s="375">
         <f t="shared" si="8"/>
-        <v>2.224972110923106</v>
+        <v>2.0110157617297699</v>
       </c>
       <c r="G23" s="379">
         <f t="shared" si="9"/>
@@ -34729,11 +34729,11 @@
       </c>
       <c r="H23" s="379">
         <f t="shared" si="10"/>
-        <v>1.899651737571835E-2</v>
+        <v>1.8764773907667721E-2</v>
       </c>
       <c r="I23" s="375">
         <f t="shared" si="11"/>
-        <v>2.0774059265958238</v>
+        <v>2.0854212181207941</v>
       </c>
       <c r="N23" s="78"/>
     </row>
